--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
@@ -55,91 +58,106 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>family</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cheese</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>cooking</t>
@@ -148,25 +166,16 @@
     <t>years</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>keeps</t>
   </si>
   <si>
     <t>good</t>
@@ -175,49 +184,49 @@
     <t>new</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -581,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,7 +601,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2558139534883721</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +709,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +735,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8478260869565217</v>
+        <v>0.9140625</v>
       </c>
       <c r="L5">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="M5">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +761,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +787,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8374613003095975</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="L7">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="M7">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -796,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -804,13 +813,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.8181818181818182</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -822,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -830,13 +839,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7402597402597403</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -848,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -856,13 +865,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7229437229437229</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -874,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -882,13 +891,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.684931506849315</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -900,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -908,13 +917,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6745762711864407</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L12">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -926,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -934,13 +943,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6619718309859155</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -952,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -960,13 +969,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6436597110754414</v>
+        <v>0.6644067796610169</v>
       </c>
       <c r="L14">
-        <v>802</v>
+        <v>196</v>
       </c>
       <c r="M14">
-        <v>802</v>
+        <v>196</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -978,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>444</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -986,13 +995,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6153846153846154</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1004,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1012,13 +1021,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6140350877192983</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1030,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1038,13 +1047,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6114285714285714</v>
+        <v>0.6514285714285715</v>
       </c>
       <c r="L17">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1056,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1064,13 +1073,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6111111111111112</v>
+        <v>0.6388443017656501</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>796</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>796</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1082,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1090,13 +1099,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.6029411764705882</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1108,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1116,13 +1125,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5857142857142857</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1134,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1142,13 +1151,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5625</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1160,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1168,13 +1177,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5396825396825397</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1186,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1194,13 +1203,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5299145299145299</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L23">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1212,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1220,13 +1229,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5230769230769231</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1238,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1246,13 +1255,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5180722891566265</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L25">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1264,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1272,13 +1281,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5131578947368421</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1290,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1298,13 +1307,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5089820359281437</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L27">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="M27">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1316,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1324,13 +1333,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4903846153846154</v>
+        <v>0.53125</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1342,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1350,25 +1359,25 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.49</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L29">
+        <v>55</v>
+      </c>
+      <c r="M29">
+        <v>55</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>49</v>
-      </c>
-      <c r="M29">
-        <v>49</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>51</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1376,13 +1385,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4754098360655737</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1394,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1402,13 +1411,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4586466165413534</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L31">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1420,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1428,13 +1437,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.4567901234567901</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1446,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1454,13 +1463,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4216867469879518</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L33">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="M33">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1472,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1480,13 +1489,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3947368421052632</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1498,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1506,13 +1515,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.3693693693693694</v>
+        <v>0.44</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1524,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1532,13 +1541,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.3618677042801556</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L36">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1550,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>164</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1558,13 +1567,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3533834586466165</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L37">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1576,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1584,13 +1593,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3529411764705883</v>
+        <v>0.3651960784313725</v>
       </c>
       <c r="L38">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M38">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1602,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1610,13 +1619,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.3381294964028777</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L39">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1628,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1636,13 +1645,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2962962962962963</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L40">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M40">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1654,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1662,13 +1671,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.2931506849315069</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L41">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1680,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>516</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1688,13 +1697,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.2871287128712871</v>
+        <v>0.3073929961089494</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1706,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>72</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1714,13 +1723,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.277511961722488</v>
+        <v>0.3054794520547945</v>
       </c>
       <c r="L43">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="M43">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1732,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>151</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1740,13 +1749,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.2411194833153929</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L44">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="M44">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1758,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>705</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1766,13 +1775,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2348993288590604</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L45">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1784,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1792,13 +1801,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2317880794701987</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1810,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1818,13 +1827,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.213166144200627</v>
+        <v>0.2615715823466093</v>
       </c>
       <c r="L47">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="M47">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1836,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>251</v>
+        <v>686</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1844,13 +1853,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.2105960264900662</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L48">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="M48">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1862,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>596</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1870,13 +1879,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.1994884910485933</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L49">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="M49">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1888,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>626</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1896,25 +1905,25 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.1751824817518248</v>
+        <v>0.206145966709347</v>
       </c>
       <c r="L50">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="M50">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>339</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1922,25 +1931,25 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.1540540540540541</v>
+        <v>0.1973509933774834</v>
       </c>
       <c r="L51">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="M51">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="N51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>313</v>
+        <v>606</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1948,25 +1957,25 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.1439114391143911</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L52">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M52">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>232</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1974,13 +1983,13 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.1374570446735395</v>
+        <v>0.147766323024055</v>
       </c>
       <c r="L53">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M53">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -1992,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2000,13 +2009,13 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.125</v>
+        <v>0.1411192214111922</v>
       </c>
       <c r="L54">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M54">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2018,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>399</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2026,13 +2035,13 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.1218487394957983</v>
+        <v>0.1337719298245614</v>
       </c>
       <c r="L55">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="M55">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2044,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>209</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2052,13 +2061,13 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.1181818181818182</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L56">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M56">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2070,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>388</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2078,13 +2087,13 @@
         <v>64</v>
       </c>
       <c r="K57">
-        <v>0.1121718377088305</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L57">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M57">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2096,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2104,25 +2113,25 @@
         <v>65</v>
       </c>
       <c r="K58">
-        <v>0.1111111111111111</v>
+        <v>0.1172248803827751</v>
       </c>
       <c r="L58">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M58">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>240</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2130,25 +2139,25 @@
         <v>66</v>
       </c>
       <c r="K59">
-        <v>0.0975609756097561</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="L59">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="M59">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="N59">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>629</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2156,25 +2165,25 @@
         <v>67</v>
       </c>
       <c r="K60">
-        <v>0.07749766573295985</v>
+        <v>0.1107011070110701</v>
       </c>
       <c r="L60">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="M60">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="N60">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>988</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2182,13 +2191,13 @@
         <v>68</v>
       </c>
       <c r="K61">
-        <v>0.03892733564013841</v>
+        <v>0.08321377331420372</v>
       </c>
       <c r="L61">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M61">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N61">
         <v>0.98</v>
@@ -2200,7 +2209,85 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>1111</v>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K62">
+        <v>0.06909430438842204</v>
+      </c>
+      <c r="L62">
+        <v>74</v>
+      </c>
+      <c r="M62">
+        <v>75</v>
+      </c>
+      <c r="N62">
+        <v>0.99</v>
+      </c>
+      <c r="O62">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K63">
+        <v>0.05950095969289827</v>
+      </c>
+      <c r="L63">
+        <v>31</v>
+      </c>
+      <c r="M63">
+        <v>32</v>
+      </c>
+      <c r="N63">
+        <v>0.97</v>
+      </c>
+      <c r="O63">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K64">
+        <v>0.04152249134948097</v>
+      </c>
+      <c r="L64">
+        <v>48</v>
+      </c>
+      <c r="M64">
+        <v>49</v>
+      </c>
+      <c r="N64">
+        <v>0.98</v>
+      </c>
+      <c r="O64">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
